--- a/src/main/resources/station_info.xlsx
+++ b/src/main/resources/station_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jcw/Develop/Free-Way/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE013FE-B1B1-6445-9B15-6905966CBC08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7C0063-AE52-D84C-8A01-F7C76D828E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1800" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1800" uniqueCount="584">
   <si>
     <t>공덕</t>
   </si>
@@ -1784,6 +1784,9 @@
   </si>
   <si>
     <t>이수</t>
+  </si>
+  <si>
+    <t>서울역</t>
   </si>
 </sst>
 </file>
@@ -2145,8 +2148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A207" zoomScale="118" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G239" sqref="G239"/>
+    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2197,7 +2200,7 @@
         <v>348</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
